--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_36ha_100ha_18%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_36ha_100ha_18%_6m_0_LM/Planilha_Unificada.xlsx
@@ -2877,28 +2877,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1947.035317111297</v>
+        <v>2128.250699961879</v>
       </c>
       <c r="AB2" t="n">
-        <v>2664.01961800755</v>
+        <v>2911.966499482174</v>
       </c>
       <c r="AC2" t="n">
-        <v>2409.769324639927</v>
+        <v>2634.052503742245</v>
       </c>
       <c r="AD2" t="n">
-        <v>1947035.317111297</v>
+        <v>2128250.699961878</v>
       </c>
       <c r="AE2" t="n">
-        <v>2664019.61800755</v>
+        <v>2911966.499482174</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.484396314965719e-07</v>
+        <v>1.078998782919573e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>41</v>
+        <v>40.60763888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>2409769.324639927</v>
+        <v>2634052.503742245</v>
       </c>
     </row>
     <row r="3">
@@ -2983,28 +2983,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1154.994511859481</v>
+        <v>1284.409687937162</v>
       </c>
       <c r="AB3" t="n">
-        <v>1580.314445887799</v>
+        <v>1757.385999191902</v>
       </c>
       <c r="AC3" t="n">
-        <v>1429.491453157522</v>
+        <v>1589.663545935767</v>
       </c>
       <c r="AD3" t="n">
-        <v>1154994.511859481</v>
+        <v>1284409.687937162</v>
       </c>
       <c r="AE3" t="n">
-        <v>1580314.445887799</v>
+        <v>1757385.999191902</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.053624018460755e-06</v>
+        <v>1.518972253380989e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.8425925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>1429491.453157522</v>
+        <v>1589663.545935767</v>
       </c>
     </row>
     <row r="4">
@@ -3089,28 +3089,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>975.2192113621408</v>
+        <v>1095.915678789767</v>
       </c>
       <c r="AB4" t="n">
-        <v>1334.337948620831</v>
+        <v>1499.480180107649</v>
       </c>
       <c r="AC4" t="n">
-        <v>1206.990607559531</v>
+        <v>1356.371896251825</v>
       </c>
       <c r="AD4" t="n">
-        <v>975219.2113621407</v>
+        <v>1095915.678789767</v>
       </c>
       <c r="AE4" t="n">
-        <v>1334337.948620831</v>
+        <v>1499480.180107649</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.172315588679144e-06</v>
+        <v>1.690085666432581e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.92592592592592</v>
       </c>
       <c r="AH4" t="n">
-        <v>1206990.607559531</v>
+        <v>1356371.896251825</v>
       </c>
     </row>
     <row r="5">
@@ -3195,28 +3195,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>889.4353082180563</v>
+        <v>1001.58374870477</v>
       </c>
       <c r="AB5" t="n">
-        <v>1216.964627820386</v>
+        <v>1370.411071734315</v>
       </c>
       <c r="AC5" t="n">
-        <v>1100.81923176179</v>
+        <v>1239.620962432011</v>
       </c>
       <c r="AD5" t="n">
-        <v>889435.3082180563</v>
+        <v>1001583.74870477</v>
       </c>
       <c r="AE5" t="n">
-        <v>1216964.627820386</v>
+        <v>1370411.071734315</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.238278691419983e-06</v>
+        <v>1.785182324305501e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.54282407407407</v>
       </c>
       <c r="AH5" t="n">
-        <v>1100819.23176179</v>
+        <v>1239620.962432011</v>
       </c>
     </row>
     <row r="6">
@@ -3301,28 +3301,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>829.2284251512019</v>
+        <v>932.8288386970039</v>
       </c>
       <c r="AB6" t="n">
-        <v>1134.586914268096</v>
+        <v>1276.337570609136</v>
       </c>
       <c r="AC6" t="n">
-        <v>1026.303531573084</v>
+        <v>1154.525704221231</v>
       </c>
       <c r="AD6" t="n">
-        <v>829228.4251512019</v>
+        <v>932828.8386970039</v>
       </c>
       <c r="AE6" t="n">
-        <v>1134586.914268096</v>
+        <v>1276337.570609136</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.279820740996418e-06</v>
+        <v>1.845072018873557e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.75</v>
       </c>
       <c r="AH6" t="n">
-        <v>1026303.531573084</v>
+        <v>1154525.704221231</v>
       </c>
     </row>
     <row r="7">
@@ -3407,28 +3407,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>791.9781307208377</v>
+        <v>895.4079520660474</v>
       </c>
       <c r="AB7" t="n">
-        <v>1083.619418061464</v>
+        <v>1225.136662627657</v>
       </c>
       <c r="AC7" t="n">
-        <v>980.2003016710826</v>
+        <v>1108.211339036578</v>
       </c>
       <c r="AD7" t="n">
-        <v>791978.1307208377</v>
+        <v>895407.9520660475</v>
       </c>
       <c r="AE7" t="n">
-        <v>1083619.418061464</v>
+        <v>1225136.662627657</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.305397198826664e-06</v>
+        <v>1.881944687969188e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.28125</v>
       </c>
       <c r="AH7" t="n">
-        <v>980200.3016710826</v>
+        <v>1108211.339036578</v>
       </c>
     </row>
     <row r="8">
@@ -3513,28 +3513,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>747.7565214506254</v>
+        <v>851.2715941418556</v>
       </c>
       <c r="AB8" t="n">
-        <v>1023.113461338248</v>
+        <v>1164.74735055709</v>
       </c>
       <c r="AC8" t="n">
-        <v>925.4689485368864</v>
+        <v>1053.585498153094</v>
       </c>
       <c r="AD8" t="n">
-        <v>747756.5214506254</v>
+        <v>851271.5941418556</v>
       </c>
       <c r="AE8" t="n">
-        <v>1023113.461338248</v>
+        <v>1164747.35055709</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.326247001205735e-06</v>
+        <v>1.912003106102587e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.91666666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>925468.9485368864</v>
+        <v>1053585.498153094</v>
       </c>
     </row>
     <row r="9">
@@ -3619,28 +3619,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>741.9401488468491</v>
+        <v>845.4552215380792</v>
       </c>
       <c r="AB9" t="n">
-        <v>1015.155243741512</v>
+        <v>1156.789132960354</v>
       </c>
       <c r="AC9" t="n">
-        <v>918.2702520581543</v>
+        <v>1046.386801674362</v>
       </c>
       <c r="AD9" t="n">
-        <v>741940.1488468491</v>
+        <v>845455.2215380792</v>
       </c>
       <c r="AE9" t="n">
-        <v>1015155.243741512</v>
+        <v>1156789.132960354</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.330500991111792e-06</v>
+        <v>1.918135931968596e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.84143518518519</v>
       </c>
       <c r="AH9" t="n">
-        <v>918270.2520581542</v>
+        <v>1046386.801674362</v>
       </c>
     </row>
   </sheetData>
@@ -3916,28 +3916,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1462.863961686724</v>
+        <v>1614.206993476186</v>
       </c>
       <c r="AB2" t="n">
-        <v>2001.555009382972</v>
+        <v>2208.629222260653</v>
       </c>
       <c r="AC2" t="n">
-        <v>1810.52940848756</v>
+        <v>1997.840749118678</v>
       </c>
       <c r="AD2" t="n">
-        <v>1462863.961686724</v>
+        <v>1614206.993476186</v>
       </c>
       <c r="AE2" t="n">
-        <v>2001555.009382972</v>
+        <v>2208629.222260653</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.870384602492271e-07</v>
+        <v>1.298590936346844e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>36</v>
+        <v>35.44560185185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>1810529.40848756</v>
+        <v>1997840.749118678</v>
       </c>
     </row>
     <row r="3">
@@ -4022,28 +4022,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>946.611617119171</v>
+        <v>1064.370206034642</v>
       </c>
       <c r="AB3" t="n">
-        <v>1295.195776099615</v>
+        <v>1456.31827259605</v>
       </c>
       <c r="AC3" t="n">
-        <v>1171.584109047356</v>
+        <v>1317.329300615015</v>
       </c>
       <c r="AD3" t="n">
-        <v>946611.617119171</v>
+        <v>1064370.206034642</v>
       </c>
       <c r="AE3" t="n">
-        <v>1295195.776099615</v>
+        <v>1456318.27259605</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.169878064834116e-06</v>
+        <v>1.712657477329368e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.875</v>
       </c>
       <c r="AH3" t="n">
-        <v>1171584.109047356</v>
+        <v>1317329.300615015</v>
       </c>
     </row>
     <row r="4">
@@ -4128,28 +4128,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>816.6282584657262</v>
+        <v>925.9694238261939</v>
       </c>
       <c r="AB4" t="n">
-        <v>1117.346810328906</v>
+        <v>1266.952216566867</v>
       </c>
       <c r="AC4" t="n">
-        <v>1010.708798957212</v>
+        <v>1146.036075196329</v>
       </c>
       <c r="AD4" t="n">
-        <v>816628.2584657262</v>
+        <v>925969.4238261939</v>
       </c>
       <c r="AE4" t="n">
-        <v>1117346.810328906</v>
+        <v>1266952.216566867</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.275223050099213e-06</v>
+        <v>1.866878572789436e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.65277777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>1010708.798957212</v>
+        <v>1146036.075196329</v>
       </c>
     </row>
     <row r="5">
@@ -4234,28 +4234,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>743.3129830442668</v>
+        <v>844.3220657043033</v>
       </c>
       <c r="AB5" t="n">
-        <v>1017.033616055589</v>
+        <v>1155.238699157275</v>
       </c>
       <c r="AC5" t="n">
-        <v>919.9693551548883</v>
+        <v>1044.984339097401</v>
       </c>
       <c r="AD5" t="n">
-        <v>743312.9830442668</v>
+        <v>844322.0657043033</v>
       </c>
       <c r="AE5" t="n">
-        <v>1017033.616055589</v>
+        <v>1155238.699157275</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.333355661875209e-06</v>
+        <v>1.951982529541511e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.58217592592593</v>
       </c>
       <c r="AH5" t="n">
-        <v>919969.3551548882</v>
+        <v>1044984.339097401</v>
       </c>
     </row>
     <row r="6">
@@ -4340,28 +4340,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>688.6370129771475</v>
+        <v>789.5607547826122</v>
       </c>
       <c r="AB6" t="n">
-        <v>942.223541676197</v>
+        <v>1080.311857655685</v>
       </c>
       <c r="AC6" t="n">
-        <v>852.2990492776664</v>
+        <v>977.2084101882405</v>
       </c>
       <c r="AD6" t="n">
-        <v>688637.0129771475</v>
+        <v>789560.7547826122</v>
       </c>
       <c r="AE6" t="n">
-        <v>942223.541676197</v>
+        <v>1080311.857655685</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.367365956241352e-06</v>
+        <v>2.001772321061883e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.99189814814815</v>
       </c>
       <c r="AH6" t="n">
-        <v>852299.0492776664</v>
+        <v>977208.4101882405</v>
       </c>
     </row>
     <row r="7">
@@ -4446,28 +4446,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>683.9246879112341</v>
+        <v>784.8484297166988</v>
       </c>
       <c r="AB7" t="n">
-        <v>935.7759306279048</v>
+        <v>1073.864246607392</v>
       </c>
       <c r="AC7" t="n">
-        <v>846.4667891785442</v>
+        <v>971.3761500891181</v>
       </c>
       <c r="AD7" t="n">
-        <v>683924.6879112341</v>
+        <v>784848.4297166988</v>
       </c>
       <c r="AE7" t="n">
-        <v>935775.9306279048</v>
+        <v>1073864.246607393</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.372364274263213e-06</v>
+        <v>2.009089670614398e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.91087962962963</v>
       </c>
       <c r="AH7" t="n">
-        <v>846466.7891785442</v>
+        <v>971376.1500891182</v>
       </c>
     </row>
   </sheetData>
@@ -4743,28 +4743,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>679.4092404635333</v>
+        <v>780.2987426626307</v>
       </c>
       <c r="AB2" t="n">
-        <v>929.5976962224784</v>
+        <v>1067.63916406199</v>
       </c>
       <c r="AC2" t="n">
-        <v>840.8781967935653</v>
+        <v>965.7451806848903</v>
       </c>
       <c r="AD2" t="n">
-        <v>679409.2404635332</v>
+        <v>780298.7426626307</v>
       </c>
       <c r="AE2" t="n">
-        <v>929597.6962224784</v>
+        <v>1067639.164061989</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.330269276299229e-06</v>
+        <v>2.058090769449516e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.37152777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>840878.1967935653</v>
+        <v>965745.1806848904</v>
       </c>
     </row>
     <row r="3">
@@ -4849,28 +4849,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>554.1897961338223</v>
+        <v>654.9938679697971</v>
       </c>
       <c r="AB3" t="n">
-        <v>758.2669281985691</v>
+        <v>896.1915064463342</v>
       </c>
       <c r="AC3" t="n">
-        <v>685.8989968056147</v>
+        <v>810.6602468837746</v>
       </c>
       <c r="AD3" t="n">
-        <v>554189.7961338223</v>
+        <v>654993.8679697971</v>
       </c>
       <c r="AE3" t="n">
-        <v>758266.9281985691</v>
+        <v>896191.5064463342</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.469946640952805e-06</v>
+        <v>2.274188893352887e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.86574074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>685898.9968056147</v>
+        <v>810660.2468837745</v>
       </c>
     </row>
   </sheetData>
@@ -5146,28 +5146,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>914.097993517031</v>
+        <v>1034.249383992608</v>
       </c>
       <c r="AB2" t="n">
-        <v>1250.709201887329</v>
+        <v>1415.105635041255</v>
       </c>
       <c r="AC2" t="n">
-        <v>1131.343271040591</v>
+        <v>1280.04993934615</v>
       </c>
       <c r="AD2" t="n">
-        <v>914097.993517031</v>
+        <v>1034249.383992608</v>
       </c>
       <c r="AE2" t="n">
-        <v>1250709.201887329</v>
+        <v>1415105.635041255</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.152224799196438e-06</v>
+        <v>1.74135038931191e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.13194444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>1131343.271040591</v>
+        <v>1280049.93934615</v>
       </c>
     </row>
     <row r="3">
@@ -5252,28 +5252,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>660.0081254507859</v>
+        <v>756.1804602457004</v>
       </c>
       <c r="AB3" t="n">
-        <v>903.0522347452505</v>
+        <v>1034.63946603562</v>
       </c>
       <c r="AC3" t="n">
-        <v>816.8661969029349</v>
+        <v>935.8949275227907</v>
       </c>
       <c r="AD3" t="n">
-        <v>660008.1254507859</v>
+        <v>756180.4602457003</v>
       </c>
       <c r="AE3" t="n">
-        <v>903052.2347452505</v>
+        <v>1034639.46603562</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.386474356953242e-06</v>
+        <v>2.09537033305937e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.20717592592592</v>
       </c>
       <c r="AH3" t="n">
-        <v>816866.1969029349</v>
+        <v>935894.9275227907</v>
       </c>
     </row>
     <row r="4">
@@ -5358,28 +5358,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>603.1443019069201</v>
+        <v>699.2312958472628</v>
       </c>
       <c r="AB4" t="n">
-        <v>825.2486427176907</v>
+        <v>956.7191068858624</v>
       </c>
       <c r="AC4" t="n">
-        <v>746.488070500458</v>
+        <v>865.4111780883749</v>
       </c>
       <c r="AD4" t="n">
-        <v>603144.30190692</v>
+        <v>699231.2958472628</v>
       </c>
       <c r="AE4" t="n">
-        <v>825248.6427176907</v>
+        <v>956719.1068858624</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.439077562916456e-06</v>
+        <v>2.174869240952153e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.32175925925926</v>
       </c>
       <c r="AH4" t="n">
-        <v>746488.070500458</v>
+        <v>865411.1780883749</v>
       </c>
     </row>
   </sheetData>
@@ -5655,28 +5655,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>527.7755272844232</v>
+        <v>625.9547377126867</v>
       </c>
       <c r="AB2" t="n">
-        <v>722.1257602435234</v>
+        <v>856.4588873125452</v>
       </c>
       <c r="AC2" t="n">
-        <v>653.2070911957508</v>
+        <v>774.7196531550333</v>
       </c>
       <c r="AD2" t="n">
-        <v>527775.5272844232</v>
+        <v>625954.7377126866</v>
       </c>
       <c r="AE2" t="n">
-        <v>722125.7602435234</v>
+        <v>856458.8873125452</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.472892890339686e-06</v>
+        <v>2.327889524242774e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.73958333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>653207.0911957507</v>
+        <v>774719.6531550332</v>
       </c>
     </row>
     <row r="3">
@@ -5761,28 +5761,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>528.2887266794249</v>
+        <v>626.4679371076884</v>
       </c>
       <c r="AB3" t="n">
-        <v>722.8279422965243</v>
+        <v>857.1610693655462</v>
       </c>
       <c r="AC3" t="n">
-        <v>653.842257979132</v>
+        <v>775.3548199384144</v>
       </c>
       <c r="AD3" t="n">
-        <v>528288.726679425</v>
+        <v>626467.9371076884</v>
       </c>
       <c r="AE3" t="n">
-        <v>722827.9422965243</v>
+        <v>857161.0693655461</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.477174372686674e-06</v>
+        <v>2.334656355673052e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.66435185185185</v>
       </c>
       <c r="AH3" t="n">
-        <v>653842.257979132</v>
+        <v>775354.8199384144</v>
       </c>
     </row>
   </sheetData>
@@ -6058,28 +6058,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1571.071908994663</v>
+        <v>1731.996038536457</v>
       </c>
       <c r="AB2" t="n">
-        <v>2149.609896687411</v>
+        <v>2369.793390198034</v>
       </c>
       <c r="AC2" t="n">
-        <v>1944.454145144002</v>
+        <v>2143.623635063446</v>
       </c>
       <c r="AD2" t="n">
-        <v>1571071.908994663</v>
+        <v>1731996.038536457</v>
       </c>
       <c r="AE2" t="n">
-        <v>2149609.896687411</v>
+        <v>2369793.390198034</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.50265052057744e-07</v>
+        <v>1.239589761333041e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.64351851851852</v>
       </c>
       <c r="AH2" t="n">
-        <v>1944454.145144003</v>
+        <v>2143623.635063446</v>
       </c>
     </row>
     <row r="3">
@@ -6164,28 +6164,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1002.08060720938</v>
+        <v>1120.548572142952</v>
       </c>
       <c r="AB3" t="n">
-        <v>1371.090895460173</v>
+        <v>1533.183991520036</v>
       </c>
       <c r="AC3" t="n">
-        <v>1240.235904735611</v>
+        <v>1386.85906320661</v>
       </c>
       <c r="AD3" t="n">
-        <v>1002080.60720938</v>
+        <v>1120548.572142953</v>
       </c>
       <c r="AE3" t="n">
-        <v>1371090.895460173</v>
+        <v>1533183.991520036</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.138693996072013e-06</v>
+        <v>1.660086364135796e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.36111111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>1240235.904735611</v>
+        <v>1386859.06320661</v>
       </c>
     </row>
     <row r="4">
@@ -6270,28 +6270,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>853.2663665879503</v>
+        <v>963.3454002151029</v>
       </c>
       <c r="AB4" t="n">
-        <v>1167.476686220986</v>
+        <v>1318.091676373877</v>
       </c>
       <c r="AC4" t="n">
-        <v>1056.054349851875</v>
+        <v>1192.29485673404</v>
       </c>
       <c r="AD4" t="n">
-        <v>853266.3665879503</v>
+        <v>963345.4002151029</v>
       </c>
       <c r="AE4" t="n">
-        <v>1167476.686220986</v>
+        <v>1318091.676373877</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.248853715962473e-06</v>
+        <v>1.820686709354097e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.94791666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1056054.349851875</v>
+        <v>1192294.85673404</v>
       </c>
     </row>
     <row r="5">
@@ -6376,28 +6376,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>779.1768686171822</v>
+        <v>889.1705613897632</v>
       </c>
       <c r="AB5" t="n">
-        <v>1066.104166499417</v>
+        <v>1216.60238953011</v>
       </c>
       <c r="AC5" t="n">
-        <v>964.3566811353073</v>
+        <v>1100.491564985533</v>
       </c>
       <c r="AD5" t="n">
-        <v>779176.8686171822</v>
+        <v>889170.5613897631</v>
       </c>
       <c r="AE5" t="n">
-        <v>1066104.166499417</v>
+        <v>1216602.389530109</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.307917847301591e-06</v>
+        <v>1.906795496599686e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.82523148148148</v>
       </c>
       <c r="AH5" t="n">
-        <v>964356.6811353073</v>
+        <v>1100491.564985533</v>
       </c>
     </row>
     <row r="6">
@@ -6482,28 +6482,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>710.748953770337</v>
+        <v>812.3538047450492</v>
       </c>
       <c r="AB6" t="n">
-        <v>972.4780745794185</v>
+        <v>1111.498314172687</v>
       </c>
       <c r="AC6" t="n">
-        <v>879.6661320231082</v>
+        <v>1005.418475065726</v>
       </c>
       <c r="AD6" t="n">
-        <v>710748.953770337</v>
+        <v>812353.8047450492</v>
       </c>
       <c r="AE6" t="n">
-        <v>972478.0745794185</v>
+        <v>1111498.314172687</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.356536726608084e-06</v>
+        <v>1.977676294122719e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.96875</v>
       </c>
       <c r="AH6" t="n">
-        <v>879666.1320231082</v>
+        <v>1005418.475065726</v>
       </c>
     </row>
     <row r="7">
@@ -6588,28 +6588,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>698.1485255668943</v>
+        <v>799.7533765416066</v>
       </c>
       <c r="AB7" t="n">
-        <v>955.2376128198088</v>
+        <v>1094.257852413077</v>
       </c>
       <c r="AC7" t="n">
-        <v>864.0710757366954</v>
+        <v>989.8234187793137</v>
       </c>
       <c r="AD7" t="n">
-        <v>698148.5255668942</v>
+        <v>799753.3765416066</v>
       </c>
       <c r="AE7" t="n">
-        <v>955237.6128198088</v>
+        <v>1094257.852413077</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.359551850906161e-06</v>
+        <v>1.982072002496241e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.91666666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>864071.0757366954</v>
+        <v>989823.4187793137</v>
       </c>
     </row>
     <row r="8">
@@ -6694,28 +6694,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>700.3753034936976</v>
+        <v>801.98015446841</v>
       </c>
       <c r="AB8" t="n">
-        <v>958.28438861777</v>
+        <v>1097.304628211038</v>
       </c>
       <c r="AC8" t="n">
-        <v>866.827071528676</v>
+        <v>992.5794145712943</v>
       </c>
       <c r="AD8" t="n">
-        <v>700375.3034936977</v>
+        <v>801980.1544684099</v>
       </c>
       <c r="AE8" t="n">
-        <v>958284.38861777</v>
+        <v>1097304.628211038</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.359821058432775e-06</v>
+        <v>1.982464476458162e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.91087962962963</v>
       </c>
       <c r="AH8" t="n">
-        <v>866827.071528676</v>
+        <v>992579.4145712942</v>
       </c>
     </row>
   </sheetData>
@@ -6991,28 +6991,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>514.498014176413</v>
+        <v>610.9871277293901</v>
       </c>
       <c r="AB2" t="n">
-        <v>703.9588810466065</v>
+        <v>835.9795430090498</v>
       </c>
       <c r="AC2" t="n">
-        <v>636.7740334520124</v>
+        <v>756.1948287289231</v>
       </c>
       <c r="AD2" t="n">
-        <v>514498.014176413</v>
+        <v>610987.12772939</v>
       </c>
       <c r="AE2" t="n">
-        <v>703958.8810466065</v>
+        <v>835979.5430090498</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.467059810754194e-06</v>
+        <v>2.350574425771211e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.41666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>636774.0334520125</v>
+        <v>756194.8287289231</v>
       </c>
     </row>
   </sheetData>
@@ -7288,28 +7288,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1171.340885388984</v>
+        <v>1302.987039194529</v>
       </c>
       <c r="AB2" t="n">
-        <v>1602.680275301968</v>
+        <v>1782.804350757126</v>
       </c>
       <c r="AC2" t="n">
-        <v>1449.722719203041</v>
+        <v>1612.656005702487</v>
       </c>
       <c r="AD2" t="n">
-        <v>1171340.885388984</v>
+        <v>1302987.039194529</v>
       </c>
       <c r="AE2" t="n">
-        <v>1602680.275301968</v>
+        <v>1782804.350757126</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.008020584544252e-06</v>
+        <v>1.496752507527006e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.13541666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1449722.719203041</v>
+        <v>1612656.005702487</v>
       </c>
     </row>
     <row r="3">
@@ -7394,28 +7394,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>804.1270693234412</v>
+        <v>911.1588360090889</v>
       </c>
       <c r="AB3" t="n">
-        <v>1100.24213183089</v>
+        <v>1246.687716918484</v>
       </c>
       <c r="AC3" t="n">
-        <v>995.2365669684801</v>
+        <v>1127.705590952984</v>
       </c>
       <c r="AD3" t="n">
-        <v>804127.0693234412</v>
+        <v>911158.8360090889</v>
       </c>
       <c r="AE3" t="n">
-        <v>1100242.13183089</v>
+        <v>1246687.716918484</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.269205838180606e-06</v>
+        <v>1.884571654579483e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.52083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>995236.5669684801</v>
+        <v>1127705.590952984</v>
       </c>
     </row>
     <row r="4">
@@ -7500,28 +7500,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>693.4095236445419</v>
+        <v>792.2080775082168</v>
       </c>
       <c r="AB4" t="n">
-        <v>948.7535013196368</v>
+        <v>1083.934041400493</v>
       </c>
       <c r="AC4" t="n">
-        <v>858.2057987375924</v>
+        <v>980.4848978002107</v>
       </c>
       <c r="AD4" t="n">
-        <v>693409.5236445419</v>
+        <v>792208.0775082167</v>
       </c>
       <c r="AE4" t="n">
-        <v>948753.5013196368</v>
+        <v>1083934.041400493</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.365596966933672e-06</v>
+        <v>2.027697366372103e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.72106481481481</v>
       </c>
       <c r="AH4" t="n">
-        <v>858205.7987375924</v>
+        <v>980484.8978002106</v>
       </c>
     </row>
     <row r="5">
@@ -7606,28 +7606,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>647.9789138494916</v>
+        <v>738.5443443997447</v>
       </c>
       <c r="AB5" t="n">
-        <v>886.5933367409983</v>
+        <v>1010.508954284664</v>
       </c>
       <c r="AC5" t="n">
-        <v>801.9781130240001</v>
+        <v>914.0673979459602</v>
       </c>
       <c r="AD5" t="n">
-        <v>647978.9138494916</v>
+        <v>738544.3443997446</v>
       </c>
       <c r="AE5" t="n">
-        <v>886593.3367409983</v>
+        <v>1010508.954284664</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.404836328870895e-06</v>
+        <v>2.085961666004291e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.05555555555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>801978.1130240001</v>
+        <v>914067.3979459603</v>
       </c>
     </row>
     <row r="6">
@@ -7712,28 +7712,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>650.9086228529677</v>
+        <v>741.4740534032209</v>
       </c>
       <c r="AB6" t="n">
-        <v>890.6018938491936</v>
+        <v>1014.51751139286</v>
       </c>
       <c r="AC6" t="n">
-        <v>805.6040990678345</v>
+        <v>917.6933839897946</v>
       </c>
       <c r="AD6" t="n">
-        <v>650908.6228529677</v>
+        <v>741474.0534032208</v>
       </c>
       <c r="AE6" t="n">
-        <v>890601.8938491936</v>
+        <v>1014517.51139286</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.404836328870895e-06</v>
+        <v>2.085961666004291e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.05555555555556</v>
       </c>
       <c r="AH6" t="n">
-        <v>805604.0990678344</v>
+        <v>917693.3839897946</v>
       </c>
     </row>
   </sheetData>
@@ -8009,28 +8009,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1360.054931731464</v>
+        <v>1502.064284453437</v>
       </c>
       <c r="AB2" t="n">
-        <v>1860.887158983892</v>
+        <v>2055.190620388576</v>
       </c>
       <c r="AC2" t="n">
-        <v>1683.286700302</v>
+        <v>1859.046112056841</v>
       </c>
       <c r="AD2" t="n">
-        <v>1360054.931731464</v>
+        <v>1502064.284453437</v>
       </c>
       <c r="AE2" t="n">
-        <v>1860887.158983892</v>
+        <v>2055190.620388576</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.257386769812992e-07</v>
+        <v>1.361245475218066e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>35</v>
+        <v>34.28819444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>1683286.700302</v>
+        <v>1859046.112056841</v>
       </c>
     </row>
     <row r="3">
@@ -8115,28 +8115,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>901.7719918061997</v>
+        <v>1018.53514445409</v>
       </c>
       <c r="AB3" t="n">
-        <v>1233.844222561752</v>
+        <v>1393.604719241334</v>
       </c>
       <c r="AC3" t="n">
-        <v>1116.0878616717</v>
+        <v>1260.601040773449</v>
       </c>
       <c r="AD3" t="n">
-        <v>901771.9918061997</v>
+        <v>1018535.14445409</v>
       </c>
       <c r="AE3" t="n">
-        <v>1233844.222561752</v>
+        <v>1393604.719241334</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.201063527887522e-06</v>
+        <v>1.766094831554028e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.42361111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>1116087.8616717</v>
+        <v>1260601.040773449</v>
       </c>
     </row>
     <row r="4">
@@ -8221,28 +8221,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>777.8946655671691</v>
+        <v>878.1114876809089</v>
       </c>
       <c r="AB4" t="n">
-        <v>1064.349799719583</v>
+        <v>1201.470876989757</v>
       </c>
       <c r="AC4" t="n">
-        <v>962.7697486586711</v>
+        <v>1086.80418276482</v>
       </c>
       <c r="AD4" t="n">
-        <v>777894.6655671691</v>
+        <v>878111.4876809089</v>
       </c>
       <c r="AE4" t="n">
-        <v>1064349.799719583</v>
+        <v>1201470.876989757</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.305215299176548e-06</v>
+        <v>1.919244020335301e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.31712962962963</v>
       </c>
       <c r="AH4" t="n">
-        <v>962769.7486586712</v>
+        <v>1086804.18276482</v>
       </c>
     </row>
     <row r="5">
@@ -8327,28 +8327,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>706.0318206420559</v>
+        <v>806.1633019012243</v>
       </c>
       <c r="AB5" t="n">
-        <v>966.023884928078</v>
+        <v>1103.028195076054</v>
       </c>
       <c r="AC5" t="n">
-        <v>873.8279211735794</v>
+        <v>997.7567322477898</v>
       </c>
       <c r="AD5" t="n">
-        <v>706031.8206420559</v>
+        <v>806163.3019012243</v>
       </c>
       <c r="AE5" t="n">
-        <v>966023.884928078</v>
+        <v>1103028.195076054</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.361761100229201e-06</v>
+        <v>2.002391368220236e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.31018518518519</v>
       </c>
       <c r="AH5" t="n">
-        <v>873827.9211735794</v>
+        <v>997756.7322477899</v>
       </c>
     </row>
     <row r="6">
@@ -8433,28 +8433,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>664.6810717511797</v>
+        <v>764.8978043563685</v>
       </c>
       <c r="AB6" t="n">
-        <v>909.4459660292906</v>
+        <v>1046.566920829916</v>
       </c>
       <c r="AC6" t="n">
-        <v>822.6497194468843</v>
+        <v>946.684042771807</v>
       </c>
       <c r="AD6" t="n">
-        <v>664681.0717511798</v>
+        <v>764897.8043563685</v>
       </c>
       <c r="AE6" t="n">
-        <v>909445.9660292906</v>
+        <v>1046566.920829916</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.389019357380673e-06</v>
+        <v>2.042473067443139e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.85300925925926</v>
       </c>
       <c r="AH6" t="n">
-        <v>822649.7194468844</v>
+        <v>946684.0427718069</v>
       </c>
     </row>
     <row r="7">
@@ -8539,28 +8539,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>666.6524574530797</v>
+        <v>766.8691900582686</v>
       </c>
       <c r="AB7" t="n">
-        <v>912.1433029180292</v>
+        <v>1049.264257718655</v>
       </c>
       <c r="AC7" t="n">
-        <v>825.0896262886978</v>
+        <v>949.1239496136205</v>
       </c>
       <c r="AD7" t="n">
-        <v>666652.4574530798</v>
+        <v>766869.1900582686</v>
       </c>
       <c r="AE7" t="n">
-        <v>912143.3029180293</v>
+        <v>1049264.257718655</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.389348430907653e-06</v>
+        <v>2.042956951135971e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.84722222222222</v>
       </c>
       <c r="AH7" t="n">
-        <v>825089.6262886978</v>
+        <v>949123.9496136205</v>
       </c>
     </row>
   </sheetData>
@@ -8836,28 +8836,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1817.335953395037</v>
+        <v>1988.805265361029</v>
       </c>
       <c r="AB2" t="n">
-        <v>2486.559226638872</v>
+        <v>2721.171103962895</v>
       </c>
       <c r="AC2" t="n">
-        <v>2249.24550395625</v>
+        <v>2461.466352988307</v>
       </c>
       <c r="AD2" t="n">
-        <v>1817335.953395037</v>
+        <v>1988805.265361029</v>
       </c>
       <c r="AE2" t="n">
-        <v>2486559.226638872</v>
+        <v>2721171.103962895</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.807859222155672e-07</v>
+        <v>1.129619605852906e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>40</v>
+        <v>39.23611111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>2249245.50395625</v>
+        <v>2461466.352988307</v>
       </c>
     </row>
     <row r="3">
@@ -8942,28 +8942,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1105.056953974643</v>
+        <v>1225.119635545231</v>
       </c>
       <c r="AB3" t="n">
-        <v>1511.987676100196</v>
+        <v>1676.262733816756</v>
       </c>
       <c r="AC3" t="n">
-        <v>1367.685694381224</v>
+        <v>1516.282571150807</v>
       </c>
       <c r="AD3" t="n">
-        <v>1105056.953974643</v>
+        <v>1225119.635545231</v>
       </c>
       <c r="AE3" t="n">
-        <v>1511987.676100196</v>
+        <v>1676262.733816756</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.08158093272671e-06</v>
+        <v>1.564801557202571e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.3275462962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>1367685.694381224</v>
+        <v>1516282.571150807</v>
       </c>
     </row>
     <row r="4">
@@ -9048,28 +9048,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>936.9344163445178</v>
+        <v>1048.500354052797</v>
       </c>
       <c r="AB4" t="n">
-        <v>1281.955003071768</v>
+        <v>1434.604440986034</v>
       </c>
       <c r="AC4" t="n">
-        <v>1159.607016813744</v>
+        <v>1297.687806618304</v>
       </c>
       <c r="AD4" t="n">
-        <v>936934.4163445178</v>
+        <v>1048500.354052797</v>
       </c>
       <c r="AE4" t="n">
-        <v>1281955.003071768</v>
+        <v>1434604.440986034</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.197303898755813e-06</v>
+        <v>1.732226362843255e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.58449074074074</v>
       </c>
       <c r="AH4" t="n">
-        <v>1159607.016813744</v>
+        <v>1297687.806618304</v>
       </c>
     </row>
     <row r="5">
@@ -9154,28 +9154,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>853.5119841153163</v>
+        <v>956.410675269246</v>
       </c>
       <c r="AB5" t="n">
-        <v>1167.812750957809</v>
+        <v>1308.603279764482</v>
       </c>
       <c r="AC5" t="n">
-        <v>1056.358341041885</v>
+        <v>1183.712019379998</v>
       </c>
       <c r="AD5" t="n">
-        <v>853511.9841153163</v>
+        <v>956410.675269246</v>
       </c>
       <c r="AE5" t="n">
-        <v>1167812.750957809</v>
+        <v>1308603.279764482</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.262470857210444e-06</v>
+        <v>1.826508126678425e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.26504629629629</v>
       </c>
       <c r="AH5" t="n">
-        <v>1056358.341041885</v>
+        <v>1183712.019379998</v>
       </c>
     </row>
     <row r="6">
@@ -9260,28 +9260,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>795.6857292116503</v>
+        <v>898.6696717116004</v>
       </c>
       <c r="AB6" t="n">
-        <v>1088.692317884296</v>
+        <v>1229.599491343618</v>
       </c>
       <c r="AC6" t="n">
-        <v>984.7890510546823</v>
+        <v>1112.248241643507</v>
       </c>
       <c r="AD6" t="n">
-        <v>795685.7292116502</v>
+        <v>898669.6717116004</v>
       </c>
       <c r="AE6" t="n">
-        <v>1088692.317884295</v>
+        <v>1229599.491343618</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.301486331118701e-06</v>
+        <v>1.882954641663413e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.54166666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>984789.0510546823</v>
+        <v>1112248.241643507</v>
       </c>
     </row>
     <row r="7">
@@ -9366,28 +9366,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>756.4954285433448</v>
+        <v>850.8974653435168</v>
       </c>
       <c r="AB7" t="n">
-        <v>1035.070419555878</v>
+        <v>1164.235451029806</v>
       </c>
       <c r="AC7" t="n">
-        <v>936.2847514439221</v>
+        <v>1053.122453598238</v>
       </c>
       <c r="AD7" t="n">
-        <v>756495.4285433448</v>
+        <v>850897.4653435168</v>
       </c>
       <c r="AE7" t="n">
-        <v>1035070.419555878</v>
+        <v>1164235.451029805</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.328008383259863e-06</v>
+        <v>1.921326017521594e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.06712962962963</v>
       </c>
       <c r="AH7" t="n">
-        <v>936284.7514439222</v>
+        <v>1053122.453598238</v>
       </c>
     </row>
     <row r="8">
@@ -9472,28 +9472,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>726.9704208046087</v>
+        <v>829.8690224499873</v>
       </c>
       <c r="AB8" t="n">
-        <v>994.6730014163272</v>
+        <v>1135.463407753452</v>
       </c>
       <c r="AC8" t="n">
-        <v>899.7428061934777</v>
+        <v>1027.096373750364</v>
       </c>
       <c r="AD8" t="n">
-        <v>726970.4208046087</v>
+        <v>829869.0224499872</v>
       </c>
       <c r="AE8" t="n">
-        <v>994673.0014163272</v>
+        <v>1135463.407753452</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.340395928571304e-06</v>
+        <v>1.939247977503259e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.85300925925926</v>
       </c>
       <c r="AH8" t="n">
-        <v>899742.8061934777</v>
+        <v>1027096.373750364</v>
       </c>
     </row>
     <row r="9">
@@ -9578,28 +9578,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>729.1698634933147</v>
+        <v>832.0684651386933</v>
       </c>
       <c r="AB9" t="n">
-        <v>997.682375935578</v>
+        <v>1138.472782272703</v>
       </c>
       <c r="AC9" t="n">
-        <v>902.4649702322947</v>
+        <v>1029.818537789181</v>
       </c>
       <c r="AD9" t="n">
-        <v>729169.8634933147</v>
+        <v>832068.4651386933</v>
       </c>
       <c r="AE9" t="n">
-        <v>997682.375935578</v>
+        <v>1138472.782272703</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.340501805026957e-06</v>
+        <v>1.939401156648402e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.85300925925926</v>
       </c>
       <c r="AH9" t="n">
-        <v>902464.9702322948</v>
+        <v>1029818.537789181</v>
       </c>
     </row>
   </sheetData>
@@ -9875,28 +9875,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>997.5661818610323</v>
+        <v>1118.918069012996</v>
       </c>
       <c r="AB2" t="n">
-        <v>1364.914059536173</v>
+        <v>1530.953065204907</v>
       </c>
       <c r="AC2" t="n">
-        <v>1234.648577362954</v>
+        <v>1384.841053367873</v>
       </c>
       <c r="AD2" t="n">
-        <v>997566.1818610323</v>
+        <v>1118918.069012996</v>
       </c>
       <c r="AE2" t="n">
-        <v>1364914.059536173</v>
+        <v>1530953.065204907</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.100463508239927e-06</v>
+        <v>1.65254911863067e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.11574074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>1234648.577362954</v>
+        <v>1384841.053367872</v>
       </c>
     </row>
     <row r="3">
@@ -9981,28 +9981,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>706.5896880365287</v>
+        <v>811.7498672135432</v>
       </c>
       <c r="AB3" t="n">
-        <v>966.7871837085684</v>
+        <v>1110.671980198237</v>
       </c>
       <c r="AC3" t="n">
-        <v>874.5183717897562</v>
+        <v>1004.671005246031</v>
       </c>
       <c r="AD3" t="n">
-        <v>706589.6880365288</v>
+        <v>811749.8672135432</v>
       </c>
       <c r="AE3" t="n">
-        <v>966787.1837085683</v>
+        <v>1110671.980198237</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.344438243868451e-06</v>
+        <v>2.018922225337235e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.65277777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>874518.3717897562</v>
+        <v>1004671.005246031</v>
       </c>
     </row>
     <row r="4">
@@ -10087,28 +10087,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>618.260603138081</v>
+        <v>715.2397217358761</v>
       </c>
       <c r="AB4" t="n">
-        <v>845.9314329463092</v>
+        <v>978.6225414285692</v>
       </c>
       <c r="AC4" t="n">
-        <v>765.1969242581356</v>
+        <v>885.2241795799893</v>
       </c>
       <c r="AD4" t="n">
-        <v>618260.603138081</v>
+        <v>715239.7217358761</v>
       </c>
       <c r="AE4" t="n">
-        <v>845931.4329463092</v>
+        <v>978622.5414285692</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.427939456203284e-06</v>
+        <v>2.144314711153707e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.21180555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>765196.9242581356</v>
+        <v>885224.1795799893</v>
       </c>
     </row>
     <row r="5">
@@ -10193,28 +10193,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>619.7319251736811</v>
+        <v>716.7110437714763</v>
       </c>
       <c r="AB5" t="n">
-        <v>847.9445606655644</v>
+        <v>980.6356691478244</v>
       </c>
       <c r="AC5" t="n">
-        <v>767.0179218933076</v>
+        <v>887.0451772151613</v>
       </c>
       <c r="AD5" t="n">
-        <v>619731.9251736811</v>
+        <v>716711.0437714763</v>
       </c>
       <c r="AE5" t="n">
-        <v>847944.5606655644</v>
+        <v>980635.6691478244</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.428397624720896e-06</v>
+        <v>2.145002735767241e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.20023148148148</v>
       </c>
       <c r="AH5" t="n">
-        <v>767017.9218933076</v>
+        <v>887045.1772151613</v>
       </c>
     </row>
   </sheetData>
@@ -10490,28 +10490,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>757.4604172619914</v>
+        <v>867.3045129505252</v>
       </c>
       <c r="AB2" t="n">
-        <v>1036.390759693028</v>
+        <v>1186.68429739357</v>
       </c>
       <c r="AC2" t="n">
-        <v>937.4790801714914</v>
+        <v>1073.428813572198</v>
       </c>
       <c r="AD2" t="n">
-        <v>757460.4172619914</v>
+        <v>867304.5129505253</v>
       </c>
       <c r="AE2" t="n">
-        <v>1036390.759693028</v>
+        <v>1186684.297393569</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.264857568439569e-06</v>
+        <v>1.939971183392635e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.29745370370371</v>
       </c>
       <c r="AH2" t="n">
-        <v>937479.0801714915</v>
+        <v>1073428.813572198</v>
       </c>
     </row>
     <row r="3">
@@ -10596,28 +10596,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>570.4638139370288</v>
+        <v>664.7621178419942</v>
       </c>
       <c r="AB3" t="n">
-        <v>780.5337573159109</v>
+        <v>909.5568568662439</v>
       </c>
       <c r="AC3" t="n">
-        <v>706.0407110036883</v>
+        <v>822.7500270179951</v>
       </c>
       <c r="AD3" t="n">
-        <v>570463.8139370289</v>
+        <v>664762.1178419942</v>
       </c>
       <c r="AE3" t="n">
-        <v>780533.7573159109</v>
+        <v>909556.856866244</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.459579533508277e-06</v>
+        <v>2.238625364252628e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.65162037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>706040.7110036883</v>
+        <v>822750.0270179951</v>
       </c>
     </row>
     <row r="4">
@@ -10702,28 +10702,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>573.3559985168791</v>
+        <v>667.6543024218444</v>
       </c>
       <c r="AB4" t="n">
-        <v>784.4909718522404</v>
+        <v>913.5140714025734</v>
       </c>
       <c r="AC4" t="n">
-        <v>709.6202545386561</v>
+        <v>826.329570552963</v>
       </c>
       <c r="AD4" t="n">
-        <v>573355.9985168792</v>
+        <v>667654.3024218443</v>
       </c>
       <c r="AE4" t="n">
-        <v>784490.9718522404</v>
+        <v>913514.0714025735</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.4604743954801e-06</v>
+        <v>2.239997855892609e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.6400462962963</v>
       </c>
       <c r="AH4" t="n">
-        <v>709620.2545386561</v>
+        <v>826329.5705529629</v>
       </c>
     </row>
   </sheetData>
@@ -18908,28 +18908,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>600.3336817667047</v>
+        <v>699.8504707373007</v>
       </c>
       <c r="AB2" t="n">
-        <v>821.4030282460385</v>
+        <v>957.5662892864807</v>
       </c>
       <c r="AC2" t="n">
-        <v>743.0094760766266</v>
+        <v>866.177506589706</v>
       </c>
       <c r="AD2" t="n">
-        <v>600333.6817667047</v>
+        <v>699850.4707373007</v>
       </c>
       <c r="AE2" t="n">
-        <v>821403.0282460385</v>
+        <v>957566.2892864808</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.404030202414897e-06</v>
+        <v>2.19376949626429e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.43402777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>743009.4760766266</v>
+        <v>866177.5065897061</v>
       </c>
     </row>
     <row r="3">
@@ -19014,28 +19014,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>546.7027012788847</v>
+        <v>638.6365710139609</v>
       </c>
       <c r="AB3" t="n">
-        <v>748.0227547107302</v>
+        <v>873.8107311183477</v>
       </c>
       <c r="AC3" t="n">
-        <v>676.6325128576674</v>
+        <v>790.4154613414756</v>
       </c>
       <c r="AD3" t="n">
-        <v>546702.7012788847</v>
+        <v>638636.5710139609</v>
       </c>
       <c r="AE3" t="n">
-        <v>748022.7547107302</v>
+        <v>873810.7311183477</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.474321196241567e-06</v>
+        <v>2.303597787602913e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.22453703703704</v>
       </c>
       <c r="AH3" t="n">
-        <v>676632.5128576674</v>
+        <v>790415.4613414756</v>
       </c>
     </row>
   </sheetData>
@@ -19311,28 +19311,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>502.436095265989</v>
+        <v>604.4353406397231</v>
       </c>
       <c r="AB2" t="n">
-        <v>687.4552314590583</v>
+        <v>827.0150988685208</v>
       </c>
       <c r="AC2" t="n">
-        <v>621.8454690180821</v>
+        <v>748.0859385554897</v>
       </c>
       <c r="AD2" t="n">
-        <v>502436.095265989</v>
+        <v>604435.3406397231</v>
       </c>
       <c r="AE2" t="n">
-        <v>687455.2314590582</v>
+        <v>827015.0988685208</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.434290974488025e-06</v>
+        <v>2.3374297690376e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.72453703703704</v>
       </c>
       <c r="AH2" t="n">
-        <v>621845.4690180821</v>
+        <v>748085.9385554898</v>
       </c>
     </row>
   </sheetData>
@@ -19608,28 +19608,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1262.865928738333</v>
+        <v>1403.747662404501</v>
       </c>
       <c r="AB2" t="n">
-        <v>1727.908877412486</v>
+        <v>1920.669480677976</v>
       </c>
       <c r="AC2" t="n">
-        <v>1562.999679287579</v>
+        <v>1737.363481118616</v>
       </c>
       <c r="AD2" t="n">
-        <v>1262865.928738333</v>
+        <v>1403747.662404501</v>
       </c>
       <c r="AE2" t="n">
-        <v>1727908.877412486</v>
+        <v>1920669.480677976</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.662219227858503e-07</v>
+        <v>1.427477721870324e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.17708333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1562999.679287579</v>
+        <v>1737363.481118616</v>
       </c>
     </row>
     <row r="3">
@@ -19714,28 +19714,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>849.8948888250432</v>
+        <v>965.8849460649965</v>
       </c>
       <c r="AB3" t="n">
-        <v>1162.863681606676</v>
+        <v>1321.566395042557</v>
       </c>
       <c r="AC3" t="n">
-        <v>1051.881603923561</v>
+        <v>1195.437953129779</v>
       </c>
       <c r="AD3" t="n">
-        <v>849894.8888250431</v>
+        <v>965884.9460649965</v>
       </c>
       <c r="AE3" t="n">
-        <v>1162863.681606675</v>
+        <v>1321566.395042557</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.233272079854622e-06</v>
+        <v>1.82201249783414e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.99537037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>1051881.603923561</v>
+        <v>1195437.953129779</v>
       </c>
     </row>
     <row r="4">
@@ -19820,28 +19820,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>730.5648190194837</v>
+        <v>838.2576806202161</v>
       </c>
       <c r="AB4" t="n">
-        <v>999.5910156275771</v>
+        <v>1146.941139943439</v>
       </c>
       <c r="AC4" t="n">
-        <v>904.1914520308823</v>
+        <v>1037.478687289236</v>
       </c>
       <c r="AD4" t="n">
-        <v>730564.8190194838</v>
+        <v>838257.6806202161</v>
       </c>
       <c r="AE4" t="n">
-        <v>999591.0156275771</v>
+        <v>1146941.139943439</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.336137075016769e-06</v>
+        <v>1.9739832671693e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.99305555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>904191.4520308822</v>
+        <v>1037478.687289236</v>
       </c>
     </row>
     <row r="5">
@@ -19926,28 +19926,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>669.5958545763809</v>
+        <v>760.8650961163652</v>
       </c>
       <c r="AB5" t="n">
-        <v>916.1705887156463</v>
+        <v>1041.049191505412</v>
       </c>
       <c r="AC5" t="n">
-        <v>828.7325535821215</v>
+        <v>941.692917789852</v>
       </c>
       <c r="AD5" t="n">
-        <v>669595.8545763809</v>
+        <v>760865.0961163652</v>
       </c>
       <c r="AE5" t="n">
-        <v>916170.5887156463</v>
+        <v>1041049.191505412</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.388483558823031e-06</v>
+        <v>2.051318957541796e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.09027777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>828732.5535821215</v>
+        <v>941692.917789852</v>
       </c>
     </row>
     <row r="6">
@@ -20032,28 +20032,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>664.9463071916048</v>
+        <v>756.215548731589</v>
       </c>
       <c r="AB6" t="n">
-        <v>909.8088728602419</v>
+        <v>1034.687475650008</v>
       </c>
       <c r="AC6" t="n">
-        <v>822.9779909592326</v>
+        <v>935.9383551669629</v>
       </c>
       <c r="AD6" t="n">
-        <v>664946.3071916047</v>
+        <v>756215.548731589</v>
       </c>
       <c r="AE6" t="n">
-        <v>909808.8728602419</v>
+        <v>1034687.475650008</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.39153017957366e-06</v>
+        <v>2.055819976558185e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.03819444444445</v>
       </c>
       <c r="AH6" t="n">
-        <v>822977.9909592326</v>
+        <v>935938.3551669628</v>
       </c>
     </row>
   </sheetData>
@@ -20329,28 +20329,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1686.911486351721</v>
+        <v>1857.320461456711</v>
       </c>
       <c r="AB2" t="n">
-        <v>2308.106716908812</v>
+        <v>2541.267794560853</v>
       </c>
       <c r="AC2" t="n">
-        <v>2087.824251295157</v>
+        <v>2298.732762939715</v>
       </c>
       <c r="AD2" t="n">
-        <v>1686911.486351721</v>
+        <v>1857320.461456711</v>
       </c>
       <c r="AE2" t="n">
-        <v>2308106.716908812</v>
+        <v>2541267.794560852</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.146101774944797e-07</v>
+        <v>1.182951659573373e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>38</v>
+        <v>37.9224537037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>2087824.251295157</v>
+        <v>2298732.762939715</v>
       </c>
     </row>
     <row r="3">
@@ -20435,28 +20435,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1047.113092894986</v>
+        <v>1174.877153796442</v>
       </c>
       <c r="AB3" t="n">
-        <v>1432.706329068272</v>
+        <v>1607.518753746204</v>
       </c>
       <c r="AC3" t="n">
-        <v>1295.970847837958</v>
+        <v>1454.099420055407</v>
       </c>
       <c r="AD3" t="n">
-        <v>1047113.092894986</v>
+        <v>1174877.153796442</v>
       </c>
       <c r="AE3" t="n">
-        <v>1432706.329068272</v>
+        <v>1607518.753746204</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.11059428300571e-06</v>
+        <v>1.612770606715391e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.8125</v>
       </c>
       <c r="AH3" t="n">
-        <v>1295970.847837958</v>
+        <v>1454099.420055407</v>
       </c>
     </row>
     <row r="4">
@@ -20541,28 +20541,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>899.0965818224378</v>
+        <v>1009.802766551032</v>
       </c>
       <c r="AB4" t="n">
-        <v>1230.18360859121</v>
+        <v>1381.656694549047</v>
       </c>
       <c r="AC4" t="n">
-        <v>1112.776611560803</v>
+        <v>1249.793318788635</v>
       </c>
       <c r="AD4" t="n">
-        <v>899096.5818224378</v>
+        <v>1009802.766551032</v>
       </c>
       <c r="AE4" t="n">
-        <v>1230183.608591211</v>
+        <v>1381656.694549047</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.222902769569394e-06</v>
+        <v>1.775861511095338e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.26041666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1112776.611560803</v>
+        <v>1249793.318788635</v>
       </c>
     </row>
     <row r="5">
@@ -20647,28 +20647,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>822.2109587869256</v>
+        <v>924.4735015293849</v>
       </c>
       <c r="AB5" t="n">
-        <v>1124.985307199727</v>
+        <v>1264.905429684939</v>
       </c>
       <c r="AC5" t="n">
-        <v>1017.618288407379</v>
+        <v>1144.184630781728</v>
       </c>
       <c r="AD5" t="n">
-        <v>822210.9587869257</v>
+        <v>924473.5015293849</v>
       </c>
       <c r="AE5" t="n">
-        <v>1124985.307199727</v>
+        <v>1264905.429684939</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.283167161836695e-06</v>
+        <v>1.863375594291613e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.07407407407408</v>
       </c>
       <c r="AH5" t="n">
-        <v>1017618.288407379</v>
+        <v>1144184.630781728</v>
       </c>
     </row>
     <row r="6">
@@ -20753,28 +20753,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>761.1645482164374</v>
+        <v>863.3417501043251</v>
       </c>
       <c r="AB6" t="n">
-        <v>1041.458915079626</v>
+        <v>1181.26227044264</v>
       </c>
       <c r="AC6" t="n">
-        <v>942.0635379211931</v>
+        <v>1068.524257263603</v>
       </c>
       <c r="AD6" t="n">
-        <v>761164.5482164375</v>
+        <v>863341.7501043251</v>
       </c>
       <c r="AE6" t="n">
-        <v>1041458.915079626</v>
+        <v>1181262.27044264</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.324695680157297e-06</v>
+        <v>1.923682021861764e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.32175925925926</v>
       </c>
       <c r="AH6" t="n">
-        <v>942063.5379211931</v>
+        <v>1068524.257263603</v>
       </c>
     </row>
     <row r="7">
@@ -20859,28 +20859,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>717.1651011239904</v>
+        <v>819.4275543578985</v>
       </c>
       <c r="AB7" t="n">
-        <v>981.256930449131</v>
+        <v>1121.176930464795</v>
       </c>
       <c r="AC7" t="n">
-        <v>887.6071462098168</v>
+        <v>1014.173377802939</v>
       </c>
       <c r="AD7" t="n">
-        <v>717165.1011239905</v>
+        <v>819427.5543578985</v>
       </c>
       <c r="AE7" t="n">
-        <v>981256.9304491311</v>
+        <v>1121176.930464795</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.346153860574883e-06</v>
+        <v>1.954842926595956e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.94560185185185</v>
       </c>
       <c r="AH7" t="n">
-        <v>887607.1462098168</v>
+        <v>1014173.377802939</v>
       </c>
     </row>
     <row r="8">
@@ -20965,28 +20965,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>712.6048250436692</v>
+        <v>814.8672782775774</v>
       </c>
       <c r="AB8" t="n">
-        <v>975.0173595308538</v>
+        <v>1114.937359546518</v>
       </c>
       <c r="AC8" t="n">
-        <v>881.9630711826871</v>
+        <v>1008.52930277581</v>
       </c>
       <c r="AD8" t="n">
-        <v>712604.8250436692</v>
+        <v>814867.2782775774</v>
       </c>
       <c r="AE8" t="n">
-        <v>975017.3595308538</v>
+        <v>1114937.359546518</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.35085117370112e-06</v>
+        <v>1.961664219174585e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.86458333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>881963.0711826872</v>
+        <v>1008529.30277581</v>
       </c>
     </row>
   </sheetData>
@@ -21262,28 +21262,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>502.5991291044167</v>
+        <v>609.3340886583335</v>
       </c>
       <c r="AB2" t="n">
-        <v>687.6783015493405</v>
+        <v>833.7177820250932</v>
       </c>
       <c r="AC2" t="n">
-        <v>622.0472496120287</v>
+        <v>754.1489270388739</v>
       </c>
       <c r="AD2" t="n">
-        <v>502599.1291044167</v>
+        <v>609334.0886583335</v>
       </c>
       <c r="AE2" t="n">
-        <v>687678.3015493405</v>
+        <v>833717.7820250932</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.342136252559374e-06</v>
+        <v>2.237261169824586e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.57175925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>622047.2496120287</v>
+        <v>754148.9270388739</v>
       </c>
     </row>
   </sheetData>
@@ -21559,28 +21559,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>835.2088424904827</v>
+        <v>946.3191648058843</v>
       </c>
       <c r="AB2" t="n">
-        <v>1142.769585109092</v>
+        <v>1294.79562994249</v>
       </c>
       <c r="AC2" t="n">
-        <v>1033.705259793466</v>
+        <v>1171.222152277858</v>
       </c>
       <c r="AD2" t="n">
-        <v>835208.8424904826</v>
+        <v>946319.1648058842</v>
       </c>
       <c r="AE2" t="n">
-        <v>1142769.585109092</v>
+        <v>1294795.62994249</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.205916358401373e-06</v>
+        <v>1.835292091093741e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.21180555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>1033705.259793466</v>
+        <v>1171222.152277858</v>
       </c>
     </row>
     <row r="3">
@@ -21665,28 +21665,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>605.5128557973256</v>
+        <v>708.5952067737886</v>
       </c>
       <c r="AB3" t="n">
-        <v>828.4894026437664</v>
+        <v>969.5312229221296</v>
       </c>
       <c r="AC3" t="n">
-        <v>749.4195368476243</v>
+        <v>877.0005237520584</v>
       </c>
       <c r="AD3" t="n">
-        <v>605512.8557973256</v>
+        <v>708595.2067737887</v>
       </c>
       <c r="AE3" t="n">
-        <v>828489.4026437664</v>
+        <v>969531.2229221296</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.429369197005362e-06</v>
+        <v>2.175366445807693e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.80208333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>749419.5368476242</v>
+        <v>877000.5237520584</v>
       </c>
     </row>
     <row r="4">
@@ -21771,28 +21771,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>588.040947759341</v>
+        <v>683.1808472685393</v>
       </c>
       <c r="AB4" t="n">
-        <v>804.583567260014</v>
+        <v>934.7581750446366</v>
       </c>
       <c r="AC4" t="n">
-        <v>727.7952408408464</v>
+        <v>845.546166759714</v>
       </c>
       <c r="AD4" t="n">
-        <v>588040.947759341</v>
+        <v>683180.8472685394</v>
       </c>
       <c r="AE4" t="n">
-        <v>804583.567260014</v>
+        <v>934758.1750446366</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.449944964832617e-06</v>
+        <v>2.206680843111004e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.46064814814815</v>
       </c>
       <c r="AH4" t="n">
-        <v>727795.2408408464</v>
+        <v>845546.166759714</v>
       </c>
     </row>
   </sheetData>
@@ -22068,28 +22068,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1082.254724369349</v>
+        <v>1212.743670617256</v>
       </c>
       <c r="AB2" t="n">
-        <v>1480.78865959086</v>
+        <v>1659.329392613262</v>
       </c>
       <c r="AC2" t="n">
-        <v>1339.464268219444</v>
+        <v>1500.965324265681</v>
       </c>
       <c r="AD2" t="n">
-        <v>1082254.724369349</v>
+        <v>1212743.670617256</v>
       </c>
       <c r="AE2" t="n">
-        <v>1480788.65959086</v>
+        <v>1659329.392613262</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.053102476890703e-06</v>
+        <v>1.572187949650505e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.10532407407408</v>
       </c>
       <c r="AH2" t="n">
-        <v>1339464.268219444</v>
+        <v>1500965.324265681</v>
       </c>
     </row>
     <row r="3">
@@ -22174,28 +22174,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>758.9703609921501</v>
+        <v>864.9606437809632</v>
       </c>
       <c r="AB3" t="n">
-        <v>1038.456731318647</v>
+        <v>1183.477312191565</v>
       </c>
       <c r="AC3" t="n">
-        <v>939.3478783647706</v>
+        <v>1070.527898536841</v>
       </c>
       <c r="AD3" t="n">
-        <v>758970.36099215</v>
+        <v>864960.6437809633</v>
       </c>
       <c r="AE3" t="n">
-        <v>1038456.731318647</v>
+        <v>1183477.312191565</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.306105168049547e-06</v>
+        <v>1.949898372897724e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.08101851851852</v>
       </c>
       <c r="AH3" t="n">
-        <v>939347.8783647707</v>
+        <v>1070527.898536841</v>
       </c>
     </row>
     <row r="4">
@@ -22280,28 +22280,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>652.9323773599249</v>
+        <v>750.7564389957071</v>
       </c>
       <c r="AB4" t="n">
-        <v>893.3708840473601</v>
+        <v>1027.21808087045</v>
       </c>
       <c r="AC4" t="n">
-        <v>808.10882072779</v>
+        <v>929.1818289418048</v>
       </c>
       <c r="AD4" t="n">
-        <v>652932.3773599248</v>
+        <v>750756.4389957071</v>
       </c>
       <c r="AE4" t="n">
-        <v>893370.88404736</v>
+        <v>1027218.08087045</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.39932562271143e-06</v>
+        <v>2.089068186563982e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.40856481481482</v>
       </c>
       <c r="AH4" t="n">
-        <v>808108.82072779</v>
+        <v>929181.8289418048</v>
       </c>
     </row>
     <row r="5">
@@ -22386,28 +22386,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>634.8123971653024</v>
+        <v>732.6364588010846</v>
       </c>
       <c r="AB5" t="n">
-        <v>868.5783277479701</v>
+        <v>1002.42552457106</v>
       </c>
       <c r="AC5" t="n">
-        <v>785.6824312050426</v>
+        <v>906.7554394190574</v>
       </c>
       <c r="AD5" t="n">
-        <v>634812.3971653024</v>
+        <v>732636.4588010845</v>
       </c>
       <c r="AE5" t="n">
-        <v>868578.3277479701</v>
+        <v>1002425.52457106</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.414664264613901e-06</v>
+        <v>2.111967409091946e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.15393518518519</v>
       </c>
       <c r="AH5" t="n">
-        <v>785682.4312050425</v>
+        <v>906755.4394190575</v>
       </c>
     </row>
   </sheetData>
